--- a/app/src/main/assets/zhigongzhijia.xlsx
+++ b/app/src/main/assets/zhigongzhijia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miku/project/Map/app/src/main/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奔雷手文泰来\Desktop\Map\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FCC25C-40F6-BD4E-AD04-6DCC0D480FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE055E4-281E-48BD-8385-628A7E6F862C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,7 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1049,13 +1049,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.21875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>39.954259</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>39.950952999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>40.114485999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1131,13 +1135,13 @@
         <v>106</v>
       </c>
       <c r="D5">
-        <v>104.709772</v>
+        <v>116.815819</v>
       </c>
       <c r="E5">
-        <v>28.443449000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>40.057243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1154,7 +1158,7 @@
         <v>40.098292000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1165,13 +1169,13 @@
         <v>108</v>
       </c>
       <c r="D7">
-        <v>126.63675000000001</v>
+        <v>116.26879099999999</v>
       </c>
       <c r="E7">
-        <v>45.597529000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>39.952385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1188,7 +1192,7 @@
         <v>39.985064000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>40.040827</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1222,7 +1226,7 @@
         <v>40.083843000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>40.100724999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>39.999389999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>39.981721999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>39.947372999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>39.967461999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1324,7 +1328,7 @@
         <v>39.953139999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>39.944800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>40.053879999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1375,7 +1379,7 @@
         <v>40.054392</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>39.947633000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1409,7 +1413,7 @@
         <v>39.926313</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1420,13 +1424,13 @@
         <v>123</v>
       </c>
       <c r="D22">
-        <v>106.649068</v>
+        <v>116.196422</v>
       </c>
       <c r="E22">
-        <v>26.603269999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>40.040432000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>40.042785000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>39.949012000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>40.020535000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>38.850971000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>39.994103000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>39.960200999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>39.927638999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>40.046486999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>39.945791</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>40.324911999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>40.320079</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>40.046885000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>40.046278000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>40.086869999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>39.916935000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>39.974240999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1715,7 +1719,7 @@
         <v>39.956003000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>40.068381000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>39.957794</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1760,13 +1764,13 @@
         <v>143</v>
       </c>
       <c r="D42">
-        <v>125.288319</v>
+        <v>116.506905</v>
       </c>
       <c r="E42">
-        <v>43.833513000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>39.986908</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>40.001609000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>39.992007000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>40.118834</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1834,7 +1838,7 @@
         <v>39.959862999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>39.964193000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>39.963557000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1879,13 +1883,13 @@
         <v>150</v>
       </c>
       <c r="D49">
-        <v>114.61813600000001</v>
+        <v>116.282769</v>
       </c>
       <c r="E49">
-        <v>23.569527999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>39.964345000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>40.072564</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>39.927182999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>39.951832000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>39.949767999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1970,7 +1974,7 @@
         <v>39.945568999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>40.021259000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2004,7 +2008,7 @@
         <v>39.942610000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>39.919246999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>39.942489000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2055,7 +2059,7 @@
         <v>39.978785999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>39.924675999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2089,7 +2093,7 @@
         <v>40.068381000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2106,7 +2110,7 @@
         <v>39.930199000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2117,13 +2121,13 @@
         <v>164</v>
       </c>
       <c r="D63">
-        <v>115.97915</v>
+        <v>116.19037</v>
       </c>
       <c r="E63">
-        <v>39.500608</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>40.040415000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>39.950637999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2157,7 +2161,7 @@
         <v>40.048760000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>39.969740999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2191,7 +2195,7 @@
         <v>40.043914000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2208,7 +2212,7 @@
         <v>39.957132000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2225,7 +2229,7 @@
         <v>39.967751</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>39.952682000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2259,7 +2263,7 @@
         <v>39.926631</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2276,7 +2280,7 @@
         <v>40.024355999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>39.646588999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>39.950637999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2327,7 +2331,7 @@
         <v>40.008490000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2344,7 +2348,7 @@
         <v>39.905321999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>40.045502999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>40.020614999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>40.036614</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2406,13 +2410,13 @@
         <v>181</v>
       </c>
       <c r="D80">
-        <v>104.942049</v>
+        <v>116.275116</v>
       </c>
       <c r="E80">
-        <v>33.369605999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>40.032428000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>40.038345</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2446,7 +2450,7 @@
         <v>39.947704000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2463,7 +2467,7 @@
         <v>39.988638000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>40.058073999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2497,7 +2501,7 @@
         <v>39.940057000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>40.037294000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2531,7 +2535,7 @@
         <v>40.039493</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2542,13 +2546,13 @@
         <v>189</v>
       </c>
       <c r="D88">
-        <v>113.469909</v>
+        <v>116.191192</v>
       </c>
       <c r="E88">
-        <v>27.976869000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>40.084147000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>40.043039999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>39.959507000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2599,7 +2603,7 @@
         <v>40.022136000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2616,7 +2620,7 @@
         <v>39.935400999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>40.032998999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>40.074677000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2667,7 +2671,7 @@
         <v>40.205868000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>39.954275000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>40.024355999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>40.043914000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>39.954275000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>40.050209000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
